--- a/output/fit_clients/fit_round_457.xlsx
+++ b/output/fit_clients/fit_round_457.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2429342062.288195</v>
+        <v>1628981043.686072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08371020682934568</v>
+        <v>0.103642143394252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0439993765897343</v>
+        <v>0.0341117218640621</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1214671084.576432</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1960696704.512331</v>
+        <v>2551167403.899565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1564878344331586</v>
+        <v>0.1620471168470753</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03874401045461724</v>
+        <v>0.04643852462725092</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>980348386.2425603</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3240080839.850501</v>
+        <v>3375074001.711019</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1574592324320824</v>
+        <v>0.1019024416891053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02543380866109661</v>
+        <v>0.03231649433299204</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>165</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1620040380.285855</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4092782137.396387</v>
+        <v>3504925412.772368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106171415243323</v>
+        <v>0.08591741965345186</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03617464930453731</v>
+        <v>0.03666467599209293</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>169</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2046391066.303944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2860162319.512792</v>
+        <v>2075415337.362533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09453723598932466</v>
+        <v>0.1143265675184787</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03654258436192091</v>
+        <v>0.04490006697079023</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1430081096.277678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2264235642.586783</v>
+        <v>2605863575.393193</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07468204442297201</v>
+        <v>0.08427781701606919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04741921082341688</v>
+        <v>0.04032134678429416</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1132117857.040691</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2417055552.97454</v>
+        <v>2827972378.404927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1912240069422613</v>
+        <v>0.2130265131904486</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02100898147084119</v>
+        <v>0.02755566934158762</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>146</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1208527774.426075</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2134816929.35921</v>
+        <v>2299843594.41507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1530208285999747</v>
+        <v>0.172717401103198</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03026481607772782</v>
+        <v>0.03677517404989641</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1067408472.608447</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4307055334.874405</v>
+        <v>4061099640.867042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1706706098754021</v>
+        <v>0.1314384525370402</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04524895860154642</v>
+        <v>0.0386621724637164</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>192</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2153527713.120957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3371158257.998429</v>
+        <v>3843104217.127716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1623341594940176</v>
+        <v>0.1642574025155407</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04568157668963273</v>
+        <v>0.04394718679167853</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>189</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1685579097.81469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2725592556.375091</v>
+        <v>2439157171.504314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1235564838981371</v>
+        <v>0.1574618864540722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0529123699230298</v>
+        <v>0.03270152544376895</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>155</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1362796271.094478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4892921984.439361</v>
+        <v>4061687457.193162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07102674802490284</v>
+        <v>0.06319606192087861</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02825413909879374</v>
+        <v>0.02048568243976713</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>153</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2446461001.815364</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3842528171.608391</v>
+        <v>3254644796.701469</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13465538767325</v>
+        <v>0.1149572082965684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03997392001452441</v>
+        <v>0.03662089415637043</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1921264059.249983</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1536453119.939191</v>
+        <v>1412763094.082103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1075842198474358</v>
+        <v>0.1022226521619372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03860540500442782</v>
+        <v>0.04424456497189852</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>768226653.7647167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2860461597.181701</v>
+        <v>2448877553.961494</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07120570188183065</v>
+        <v>0.09895554886324293</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03356495298046342</v>
+        <v>0.04461058415957925</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1430230797.222345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4167276523.482749</v>
+        <v>5050373784.191847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1055130254923107</v>
+        <v>0.1406065103793613</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04200238724573507</v>
+        <v>0.03924337733210229</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2083638288.111001</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3277261839.082977</v>
+        <v>3119357951.835974</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166564937814943</v>
+        <v>0.1153526040959437</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03247537102674643</v>
+        <v>0.02891988594864577</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>150</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1638630929.748345</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1305335723.816558</v>
+        <v>1235860574.561054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1891900016525166</v>
+        <v>0.1398254608160721</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01889728586992499</v>
+        <v>0.02509778318461368</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>652667965.4938802</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2198234634.761414</v>
+        <v>2769196609.94724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1202478154329375</v>
+        <v>0.1295092610534468</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02670225663429878</v>
+        <v>0.03013736521910652</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1099117322.615896</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2305913884.29594</v>
+        <v>1705462844.610349</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09405960807189896</v>
+        <v>0.09048332700008731</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04507861383767373</v>
+        <v>0.04329347946832691</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1152956948.83672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3949759965.547464</v>
+        <v>3832889622.467765</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1347577929447503</v>
+        <v>0.1188136225578639</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05254288847981658</v>
+        <v>0.038848915165593</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1974879987.452791</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1299445096.300186</v>
+        <v>1553936909.487862</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1283612168807823</v>
+        <v>0.1519319400994304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03366749929476825</v>
+        <v>0.04522572782397228</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>649722567.9051255</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3597945528.970117</v>
+        <v>3205354574.291473</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1198187698699973</v>
+        <v>0.1293863416441558</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0335411750293653</v>
+        <v>0.02813369514032267</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1798972759.521808</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1323789602.239815</v>
+        <v>1109476078.462487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1215219840839487</v>
+        <v>0.08281413946401799</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02884185191970829</v>
+        <v>0.02758356333844296</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>661894790.6311486</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1091261391.593551</v>
+        <v>1015014730.788548</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09100999144893483</v>
+        <v>0.1090217177735837</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03646209585569315</v>
+        <v>0.03400628156094953</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>545630690.2216833</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4061235664.851118</v>
+        <v>4295873163.681989</v>
       </c>
       <c r="F27" t="n">
-        <v>0.113883425649355</v>
+        <v>0.1112870797728168</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0222746331696408</v>
+        <v>0.02169896985675286</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2030617839.555938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2830810441.795365</v>
+        <v>3554654456.300035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1434784512605304</v>
+        <v>0.1353989026702098</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03871612794105284</v>
+        <v>0.03592089699066981</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>147</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1415405217.444258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5569492700.533106</v>
+        <v>4047643633.446216</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1048352771753594</v>
+        <v>0.1310630621712149</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03320474096446845</v>
+        <v>0.04065128824749344</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>202</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2784746258.35763</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2098980921.697335</v>
+        <v>2334299784.077625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1035323238031518</v>
+        <v>0.1256711479137765</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02548737764487524</v>
+        <v>0.02984910912448533</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1049490509.585074</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1076965480.600738</v>
+        <v>1243180611.796563</v>
       </c>
       <c r="F31" t="n">
-        <v>0.090498482143285</v>
+        <v>0.08456692709696899</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05117851376082885</v>
+        <v>0.05257215416282031</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>538482720.7358756</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1172516550.560743</v>
+        <v>1369672965.525547</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07630415056674242</v>
+        <v>0.120907299616323</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03445267837955165</v>
+        <v>0.03139778942626254</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>586258275.8356912</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2605383314.103176</v>
+        <v>2687224609.512026</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2054342540739699</v>
+        <v>0.1694379419642249</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04900072375213441</v>
+        <v>0.04400145059600133</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1302691686.307427</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1558993848.56217</v>
+        <v>1075312339.124567</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08470265450453138</v>
+        <v>0.08010027972866658</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0212798870526347</v>
+        <v>0.02053730622387361</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>779496870.4675462</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>998524751.1310651</v>
+        <v>1071753465.498475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09331691456928187</v>
+        <v>0.08594525608755237</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04463402488831664</v>
+        <v>0.03841774947245484</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>499262394.4872127</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2113719081.154704</v>
+        <v>3082311212.371974</v>
       </c>
       <c r="F36" t="n">
-        <v>0.152693860001666</v>
+        <v>0.1093989217714676</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02058029588614421</v>
+        <v>0.02428289782051956</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1056859593.53966</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2039409462.9543</v>
+        <v>2724760271.376503</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105139771846717</v>
+        <v>0.09589994007454246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0273977377460129</v>
+        <v>0.03257955230308589</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>122</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1019704764.194171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2172404390.857225</v>
+        <v>2130915220.432732</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0831427558837028</v>
+        <v>0.1084727366270281</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03424685072262582</v>
+        <v>0.0299196328227042</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1086202149.726196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1492134588.512594</v>
+        <v>1754990798.897946</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1232931719126062</v>
+        <v>0.155794730351433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03007993891197213</v>
+        <v>0.02700840400553272</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>746067365.8888134</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1220834647.111326</v>
+        <v>1300076242.880358</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1331525667657134</v>
+        <v>0.1152117625069347</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0539077078994901</v>
+        <v>0.05844372060812493</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>610417359.6608748</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2262325631.037645</v>
+        <v>2569112269.178201</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1155690496366728</v>
+        <v>0.1435133445372976</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0296670769510527</v>
+        <v>0.0366882730462834</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1131162864.086312</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3836189799.901444</v>
+        <v>3979077291.818752</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1019365415656522</v>
+        <v>0.07873061624973224</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03550835080015131</v>
+        <v>0.04139881725765941</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>150</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1918094917.955013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2474573319.728103</v>
+        <v>2389450743.876547</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1637591725710566</v>
+        <v>0.2016353551892528</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0194310284200932</v>
+        <v>0.01752728244413122</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>159</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1237286711.109113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1461019081.96681</v>
+        <v>2352270362.331017</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07943576514716948</v>
+        <v>0.08318593849498347</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02838010864453471</v>
+        <v>0.02787026062705322</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>730509539.7981517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1815736905.644154</v>
+        <v>2281931846.260156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1704215204697629</v>
+        <v>0.1376792079626981</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05046577646610642</v>
+        <v>0.03856148286333159</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>907868425.1226633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4906538544.704482</v>
+        <v>5435952792.385587</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1514499192018217</v>
+        <v>0.1743811125521348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0514515987550944</v>
+        <v>0.04495445765004865</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>163</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2453269293.848033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5110206716.603008</v>
+        <v>3164802505.232246</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1532085670836411</v>
+        <v>0.1989924950352385</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04178693074578764</v>
+        <v>0.05827600823499964</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2555103420.402809</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4450362566.576771</v>
+        <v>3827817789.919136</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09434093277907486</v>
+        <v>0.08750366642409745</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03684180086394622</v>
+        <v>0.02940978318622719</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>149</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2225181291.503216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1460792059.999001</v>
+        <v>1439767142.183792</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1208619651086543</v>
+        <v>0.160108009724829</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03947700689225495</v>
+        <v>0.04036302392547921</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>730396068.1480347</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3121592009.197946</v>
+        <v>4022295354.796899</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1211539897315214</v>
+        <v>0.1591044447945051</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0393367416665177</v>
+        <v>0.05019081793790577</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1560796055.819226</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1127829004.175274</v>
+        <v>987076143.5987564</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1938372928669038</v>
+        <v>0.1907627695744523</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03670636876428208</v>
+        <v>0.04739900735716392</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>563914565.359024</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4426314310.819094</v>
+        <v>4957942880.18483</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09125635569144513</v>
+        <v>0.1333830579937674</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04509860809088807</v>
+        <v>0.05239288049922094</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>188</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2213157186.816084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2984783242.536771</v>
+        <v>3766864029.177891</v>
       </c>
       <c r="F53" t="n">
-        <v>0.13217562611213</v>
+        <v>0.1385061403911831</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03334342636186043</v>
+        <v>0.02605529160590817</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>131</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1492391654.801135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3476245862.23373</v>
+        <v>4951647857.834567</v>
       </c>
       <c r="F54" t="n">
-        <v>0.162080444731383</v>
+        <v>0.1069712552171506</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05138261892566973</v>
+        <v>0.0377862622382122</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>148</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1738122954.059065</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3830119441.679743</v>
+        <v>4328617959.026053</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1578421567919222</v>
+        <v>0.150511502478542</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02410694280167433</v>
+        <v>0.02183882404888588</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>125</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1915059688.25027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1627584344.542038</v>
+        <v>1233723299.52445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1097618874696536</v>
+        <v>0.106140522240794</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05772945386587724</v>
+        <v>0.04955001697105051</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>813792195.6527792</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3750000318.217302</v>
+        <v>4358751762.435822</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1331506148619799</v>
+        <v>0.1195724119930145</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02026481041214168</v>
+        <v>0.02020534794993907</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>145</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1875000226.505896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1865407240.119991</v>
+        <v>1730336719.574796</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1654694541630349</v>
+        <v>0.1961319035028147</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02470131375212747</v>
+        <v>0.03550955528666672</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>932703617.8742492</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3710381570.729628</v>
+        <v>5064533020.983705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.092594215957752</v>
+        <v>0.07988346509141216</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03568971697901114</v>
+        <v>0.04125480282363565</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1855190775.300313</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2311459644.534745</v>
+        <v>2515281556.589223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1430035757992757</v>
+        <v>0.2027935810638011</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02094550991561296</v>
+        <v>0.0251150993159412</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1155729820.413168</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2082391276.037151</v>
+        <v>3381051274.895099</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1258149760205594</v>
+        <v>0.1401561789355612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02193497787572632</v>
+        <v>0.0268719386840631</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>157</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1041195705.041852</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2055624513.586423</v>
+        <v>1291743968.424587</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1854682964794713</v>
+        <v>0.1371333858400443</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04754728859355713</v>
+        <v>0.04108864323230042</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1027812323.244515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5079920953.245375</v>
+        <v>3468102608.124781</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07548579565013598</v>
+        <v>0.07368826767934895</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03161886521201832</v>
+        <v>0.04235568001859005</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2539960490.842345</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5363902047.541251</v>
+        <v>5039842227.270176</v>
       </c>
       <c r="F64" t="n">
-        <v>0.156229746338841</v>
+        <v>0.1616351114522977</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03230768851508338</v>
+        <v>0.03401466976093557</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>143</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2681951155.588085</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4300306299.285807</v>
+        <v>5399522855.170047</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1060248857509489</v>
+        <v>0.1059386307688841</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02438246477485751</v>
+        <v>0.0302317617791864</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>164</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2150153150.314855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3636502080.815336</v>
+        <v>4598835964.311313</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1232193537454891</v>
+        <v>0.1211188619536828</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05026671522696598</v>
+        <v>0.04022628351417242</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1818250994.538905</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2631800581.408029</v>
+        <v>3049260087.834121</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09724822561811902</v>
+        <v>0.06735745472703679</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03491559543599576</v>
+        <v>0.04075322568563525</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>147</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1315900340.183625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4190898973.426442</v>
+        <v>3830190235.292773</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1142521926855063</v>
+        <v>0.1237072571704693</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03814185017441495</v>
+        <v>0.03653002182126644</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2095449494.103919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1754595669.039373</v>
+        <v>1515400363.530218</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1336401066883928</v>
+        <v>0.1508756614930195</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05400980234066028</v>
+        <v>0.05463895074853835</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>877297807.7431177</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3058896272.696832</v>
+        <v>2556102597.608902</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1020876864614073</v>
+        <v>0.09268317938030375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04609050229944305</v>
+        <v>0.04127782144847332</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>131</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1529448117.264594</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4810565330.268426</v>
+        <v>3853912189.472808</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1792337155436304</v>
+        <v>0.1433700598656644</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03331438851527294</v>
+        <v>0.02443756017429579</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>166</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2405282756.753259</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2028272155.876999</v>
+        <v>2160744205.484792</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07316494014738473</v>
+        <v>0.09404255590643087</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04320107119426318</v>
+        <v>0.04784662994103148</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1014136019.752918</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2273411080.225121</v>
+        <v>3500421916.402465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.089202856642772</v>
+        <v>0.08058684194736697</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03186035057796677</v>
+        <v>0.04942161203989313</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1136705602.640748</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3633194672.83789</v>
+        <v>2880775258.078123</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1445820663052313</v>
+        <v>0.1639619615668949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0258729328016132</v>
+        <v>0.0286012317255844</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>156</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1816597347.11684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2310778041.489891</v>
+        <v>2082466386.355031</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396802816485054</v>
+        <v>0.1166818353127696</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03783467338774085</v>
+        <v>0.02860075071508044</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1155388955.81812</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4354802537.796818</v>
+        <v>4385160243.977852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1112425903219702</v>
+        <v>0.1234127024794739</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02739577867421858</v>
+        <v>0.03383489829202009</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2177401268.51371</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1626183401.276881</v>
+        <v>1792519310.216974</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1271719880743078</v>
+        <v>0.1696930729632196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02738457110579831</v>
+        <v>0.03038993995609248</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>813091706.9526937</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3990710242.642043</v>
+        <v>3108169280.380626</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08692182215240722</v>
+        <v>0.08799949442971662</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03670517667882853</v>
+        <v>0.05256284580804579</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>159</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1995355087.718866</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1795197765.228066</v>
+        <v>1339679644.783993</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1754241743840697</v>
+        <v>0.1447935406679055</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03124880881079132</v>
+        <v>0.02934350341823207</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>897598968.4475529</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4644365697.074542</v>
+        <v>4490128023.919716</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09041170224645377</v>
+        <v>0.0952657493672991</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03684462086899547</v>
+        <v>0.03674883429578613</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>101</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2322182880.060958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4831304056.565928</v>
+        <v>3511049710.705065</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1114222762012669</v>
+        <v>0.0942478990860304</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02034590767257948</v>
+        <v>0.03177393920476523</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>107</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2415652022.362623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5484829182.064179</v>
+        <v>3593639039.626162</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1391993194103871</v>
+        <v>0.1429733120985869</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02837724015324478</v>
+        <v>0.0268068357197737</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>160</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2742414547.945409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1998698487.582957</v>
+        <v>1621914732.721514</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1090214124121245</v>
+        <v>0.1365872874247742</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04486203747109908</v>
+        <v>0.0294988576990092</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>999349228.9784492</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1727233385.71162</v>
+        <v>1741035352.402669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143624371966144</v>
+        <v>0.1018267256558366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04907686646691337</v>
+        <v>0.03969414672634192</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>863616737.8329637</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2255176166.764747</v>
+        <v>2699431324.561287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1434215636401792</v>
+        <v>0.1676494266823239</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05436955818637742</v>
+        <v>0.04083573396579115</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>171</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1127588061.312616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1752291078.961281</v>
+        <v>2658376283.029462</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1589968324960399</v>
+        <v>0.1621232415061979</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02369620536996434</v>
+        <v>0.0194314572229054</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>876145532.6858015</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1178035039.277155</v>
+        <v>1032887692.765623</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1311159519585111</v>
+        <v>0.137130451609082</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03165415491558869</v>
+        <v>0.0297066050903552</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>589017569.6318097</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2996180078.319929</v>
+        <v>3102777544.271526</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1672266760130426</v>
+        <v>0.1423372117856349</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03342391728730134</v>
+        <v>0.03564992698960627</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>182</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1498090069.262554</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2448343995.841105</v>
+        <v>2593457003.580126</v>
       </c>
       <c r="F89" t="n">
-        <v>0.138603634191522</v>
+        <v>0.1396453160496134</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04187970162221141</v>
+        <v>0.03723955133389736</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1224172076.481858</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1385290769.841198</v>
+        <v>1416002836.899724</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1264982134182402</v>
+        <v>0.09204007701984869</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04959072765551541</v>
+        <v>0.04944442847348102</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>692645342.6485578</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1280021566.683123</v>
+        <v>1609400872.328494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1426615052938617</v>
+        <v>0.1227853392659031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0619719540487397</v>
+        <v>0.04724919912663842</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>640010851.5914612</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2010082805.514653</v>
+        <v>2021552165.978682</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09659016512555364</v>
+        <v>0.108597483283556</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0464169554175169</v>
+        <v>0.03465173304636777</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1005041349.693718</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4173262325.234029</v>
+        <v>3778186230.336162</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1164625889167193</v>
+        <v>0.1269246711858421</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03512494844991599</v>
+        <v>0.04916823761424653</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2086631152.050599</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2463271043.719557</v>
+        <v>1587703947.582119</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1160589013475809</v>
+        <v>0.1441977585286269</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03085772472975004</v>
+        <v>0.0289313088494586</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1231635580.513053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2187066321.241969</v>
+        <v>3186661063.73379</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1318162438547868</v>
+        <v>0.08326039968186297</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04587898599328557</v>
+        <v>0.04562722890170225</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1093533219.480904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2165150363.440126</v>
+        <v>2347143793.395607</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1257133494982609</v>
+        <v>0.1142069423669864</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03676773757560318</v>
+        <v>0.03964497529836999</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1082575151.091</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3610016098.817913</v>
+        <v>4678707715.055795</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1477678177519903</v>
+        <v>0.1117420916006283</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02240980499437603</v>
+        <v>0.02153449228263354</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1805008074.437856</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3489718936.73981</v>
+        <v>3569339953.240761</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1295279685121464</v>
+        <v>0.1262562150492271</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0292149020481067</v>
+        <v>0.02703677560321146</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1744859486.298447</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2430522361.475202</v>
+        <v>2898227877.413104</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08969464567554765</v>
+        <v>0.1200433878112978</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03246974298180749</v>
+        <v>0.02524805381028291</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1215261125.455155</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4327715613.519314</v>
+        <v>4315494192.898303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1684229052756868</v>
+        <v>0.108886427168475</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02095398587935423</v>
+        <v>0.02488835550196992</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2163857903.616371</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2682477342.871126</v>
+        <v>3212036793.914718</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2112277744876907</v>
+        <v>0.2229473377318048</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0487239168438093</v>
+        <v>0.03814763321727935</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>188</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1341238718.592869</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_457.xlsx
+++ b/output/fit_clients/fit_round_457.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1628981043.686072</v>
+        <v>1802480502.674723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.103642143394252</v>
+        <v>0.06963815144694985</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0341117218640621</v>
+        <v>0.03058874497350725</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2551167403.899565</v>
+        <v>2585254573.84206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1620471168470753</v>
+        <v>0.1401912400004531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04643852462725092</v>
+        <v>0.04015565488803009</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3375074001.711019</v>
+        <v>3595355717.856962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1019024416891053</v>
+        <v>0.1528724563041202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03231649433299204</v>
+        <v>0.0236823372637692</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3504925412.772368</v>
+        <v>3090625728.698365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08591741965345186</v>
+        <v>0.1052764612620854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03666467599209293</v>
+        <v>0.03528638009011513</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2075415337.362533</v>
+        <v>2423201286.314148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1143265675184787</v>
+        <v>0.1451807192702677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04490006697079023</v>
+        <v>0.05041405977078973</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2605863575.393193</v>
+        <v>3147384631.493577</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08427781701606919</v>
+        <v>0.09534692289005962</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04032134678429416</v>
+        <v>0.03974895463818754</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2827972378.404927</v>
+        <v>3008297679.638391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2130265131904486</v>
+        <v>0.1563829150547036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02755566934158762</v>
+        <v>0.0296666105719362</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2299843594.41507</v>
+        <v>2247380119.39243</v>
       </c>
       <c r="F9" t="n">
-        <v>0.172717401103198</v>
+        <v>0.1673329545615771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03677517404989641</v>
+        <v>0.03578405601313614</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4061099640.867042</v>
+        <v>5336909398.499368</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1314384525370402</v>
+        <v>0.1884278197281495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0386621724637164</v>
+        <v>0.03578808694701103</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3843104217.127716</v>
+        <v>3622237241.521183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1642574025155407</v>
+        <v>0.1838740526278708</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04394718679167853</v>
+        <v>0.04844131901617971</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2439157171.504314</v>
+        <v>2056256568.440851</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1574618864540722</v>
+        <v>0.1924307102703638</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03270152544376895</v>
+        <v>0.05088527340183173</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4061687457.193162</v>
+        <v>4422679856.9135</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06319606192087861</v>
+        <v>0.09880230522993291</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02048568243976713</v>
+        <v>0.02000363159318651</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3254644796.701469</v>
+        <v>3730178718.493628</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1149572082965684</v>
+        <v>0.1687363064502545</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03662089415637043</v>
+        <v>0.04062643129202473</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1412763094.082103</v>
+        <v>1305267675.176724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022226521619372</v>
+        <v>0.107864285793903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04424456497189852</v>
+        <v>0.0306270621857372</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2448877553.961494</v>
+        <v>2317245615.783735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09895554886324293</v>
+        <v>0.1007696597459575</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04461058415957925</v>
+        <v>0.04238757052566744</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5050373784.191847</v>
+        <v>4980816375.367162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1406065103793613</v>
+        <v>0.1567235187111699</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03924337733210229</v>
+        <v>0.043849900484274</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3119357951.835974</v>
+        <v>3580918570.117779</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1153526040959437</v>
+        <v>0.1543266458589909</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02891988594864577</v>
+        <v>0.03457138122510836</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1235860574.561054</v>
+        <v>957452212.4431627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1398254608160721</v>
+        <v>0.1533562231869824</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02509778318461368</v>
+        <v>0.01981254445575304</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2769196609.94724</v>
+        <v>2332969384.760551</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1295092610534468</v>
+        <v>0.1266013406307516</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03013736521910652</v>
+        <v>0.0227798466718461</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1705462844.610349</v>
+        <v>2275155595.695105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09048332700008731</v>
+        <v>0.07452356127604817</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04329347946832691</v>
+        <v>0.03563684793180723</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3832889622.467765</v>
+        <v>2514664243.670678</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1188136225578639</v>
+        <v>0.1152627852109987</v>
       </c>
       <c r="G22" t="n">
-        <v>0.038848915165593</v>
+        <v>0.04736644349476354</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1553936909.487862</v>
+        <v>1318711325.689738</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1519319400994304</v>
+        <v>0.1745892004868428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04522572782397228</v>
+        <v>0.04905259793698053</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3205354574.291473</v>
+        <v>2871833581.25483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293863416441558</v>
+        <v>0.1494670223627142</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02813369514032267</v>
+        <v>0.03037065934417173</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1109476078.462487</v>
+        <v>1328390072.778663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08281413946401799</v>
+        <v>0.07738176345545658</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02758356333844296</v>
+        <v>0.03076898539390639</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1015014730.788548</v>
+        <v>1421626570.392331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1090217177735837</v>
+        <v>0.09171268628467211</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03400628156094953</v>
+        <v>0.02609593719356492</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4295873163.681989</v>
+        <v>4407892971.092595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1112870797728168</v>
+        <v>0.144574482792958</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02169896985675286</v>
+        <v>0.02588882148720755</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3554654456.300035</v>
+        <v>3098478749.627363</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1353989026702098</v>
+        <v>0.1484645590166042</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03592089699066981</v>
+        <v>0.03274029687719218</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4047643633.446216</v>
+        <v>4983731197.952002</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1310630621712149</v>
+        <v>0.1127390555113357</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04065128824749344</v>
+        <v>0.03902919135887305</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2334299784.077625</v>
+        <v>1742064958.092307</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1256711479137765</v>
+        <v>0.104665902666199</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02984910912448533</v>
+        <v>0.0379385492197248</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1243180611.796563</v>
+        <v>1412834866.05597</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08456692709696899</v>
+        <v>0.09876348850544799</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05257215416282031</v>
+        <v>0.04623841075808519</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1369672965.525547</v>
+        <v>1538550734.795545</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120907299616323</v>
+        <v>0.1113574191134847</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03139778942626254</v>
+        <v>0.03748846523946532</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2687224609.512026</v>
+        <v>2295256794.569613</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1694379419642249</v>
+        <v>0.1317346522792892</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04400145059600133</v>
+        <v>0.04708525671269435</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075312339.124567</v>
+        <v>1275995410.380903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08010027972866658</v>
+        <v>0.100768702578461</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02053730622387361</v>
+        <v>0.02511954473690686</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1071753465.498475</v>
+        <v>1149555153.666153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08594525608755237</v>
+        <v>0.08522846791877911</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03841774947245484</v>
+        <v>0.03574768095861151</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3082311212.371974</v>
+        <v>3077038424.518231</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1093989217714676</v>
+        <v>0.1381353240767536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02428289782051956</v>
+        <v>0.02185642480502543</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2724760271.376503</v>
+        <v>2225654401.399022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09589994007454246</v>
+        <v>0.06780371670292838</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03257955230308589</v>
+        <v>0.03093474829346205</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2130915220.432732</v>
+        <v>1903589675.258501</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1084727366270281</v>
+        <v>0.08171686009402672</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0299196328227042</v>
+        <v>0.02953748424478475</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1754990798.897946</v>
+        <v>1897255067.5603</v>
       </c>
       <c r="F39" t="n">
-        <v>0.155794730351433</v>
+        <v>0.1552404531930714</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02700840400553272</v>
+        <v>0.0318037901608803</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1300076242.880358</v>
+        <v>1671583891.296594</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1152117625069347</v>
+        <v>0.160238735685332</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05844372060812493</v>
+        <v>0.04498961288671283</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2569112269.178201</v>
+        <v>2066536360.019986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1435133445372976</v>
+        <v>0.1212239943899197</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0366882730462834</v>
+        <v>0.02878053541715143</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3979077291.818752</v>
+        <v>3868032079.67904</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07873061624973224</v>
+        <v>0.0940570227620017</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04139881725765941</v>
+        <v>0.04423259894056061</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2389450743.876547</v>
+        <v>2121758984.474894</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2016353551892528</v>
+        <v>0.1527340237990387</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01752728244413122</v>
+        <v>0.02496587993112305</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2352270362.331017</v>
+        <v>2187597229.219796</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08318593849498347</v>
+        <v>0.08171570207074395</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02787026062705322</v>
+        <v>0.0249373144972014</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2281931846.260156</v>
+        <v>1844025478.92456</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1376792079626981</v>
+        <v>0.1247377970464104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03856148286333159</v>
+        <v>0.05348473052381372</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5435952792.385587</v>
+        <v>4688539785.332896</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1743811125521348</v>
+        <v>0.1492128027212028</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04495445765004865</v>
+        <v>0.0402754905652612</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3164802505.232246</v>
+        <v>3803783708.440706</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1989924950352385</v>
+        <v>0.1992024335567588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05827600823499964</v>
+        <v>0.05034352730943967</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3827817789.919136</v>
+        <v>4160464243.644635</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08750366642409745</v>
+        <v>0.0912972724478122</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02940978318622719</v>
+        <v>0.03084610878222123</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1439767142.183792</v>
+        <v>1961309388.613776</v>
       </c>
       <c r="F49" t="n">
-        <v>0.160108009724829</v>
+        <v>0.1574428794259739</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04036302392547921</v>
+        <v>0.04450780650548386</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4022295354.796899</v>
+        <v>4006580598.408213</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1591044447945051</v>
+        <v>0.1773496818873564</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05019081793790577</v>
+        <v>0.03571252305458072</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>987076143.5987564</v>
+        <v>1001975734.150316</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1907627695744523</v>
+        <v>0.1763106816769605</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04739900735716392</v>
+        <v>0.03992909794390605</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4957942880.18483</v>
+        <v>4056022241.801903</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1333830579937674</v>
+        <v>0.09888586052209987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05239288049922094</v>
+        <v>0.03924462024010877</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3766864029.177891</v>
+        <v>3036530982.219662</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1385061403911831</v>
+        <v>0.1703924957490465</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02605529160590817</v>
+        <v>0.0304156677808536</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4951647857.834567</v>
+        <v>4078695182.667621</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1069712552171506</v>
+        <v>0.1624413355529682</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0377862622382122</v>
+        <v>0.04174314410361015</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4328617959.026053</v>
+        <v>3512040189.219111</v>
       </c>
       <c r="F55" t="n">
-        <v>0.150511502478542</v>
+        <v>0.1374166277928855</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02183882404888588</v>
+        <v>0.02714852138123914</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1233723299.52445</v>
+        <v>1308196409.809906</v>
       </c>
       <c r="F56" t="n">
-        <v>0.106140522240794</v>
+        <v>0.1636084826540024</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04955001697105051</v>
+        <v>0.04110242567814442</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4358751762.435822</v>
+        <v>3271945873.874589</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1195724119930145</v>
+        <v>0.166071801656878</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02020534794993907</v>
+        <v>0.02090133958517355</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1730336719.574796</v>
+        <v>1788487098.810252</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1961319035028147</v>
+        <v>0.1300121389622212</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03550955528666672</v>
+        <v>0.02912694132769091</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5064533020.983705</v>
+        <v>4542532652.101464</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07988346509141216</v>
+        <v>0.09986606335650518</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04125480282363565</v>
+        <v>0.03679700710399929</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2515281556.589223</v>
+        <v>3130693052.036129</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2027935810638011</v>
+        <v>0.192864639345863</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0251150993159412</v>
+        <v>0.02096911102428902</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3381051274.895099</v>
+        <v>2853497007.961617</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1401561789355612</v>
+        <v>0.136810139914252</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0268719386840631</v>
+        <v>0.02245972659239871</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1291743968.424587</v>
+        <v>1758567124.806497</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1371333858400443</v>
+        <v>0.1570794540799079</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04108864323230042</v>
+        <v>0.04620218510254216</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3468102608.124781</v>
+        <v>5018284340.591197</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07368826767934895</v>
+        <v>0.0850466639870066</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04235568001859005</v>
+        <v>0.04391569087614661</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5039842227.270176</v>
+        <v>4338788472.287085</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1616351114522977</v>
+        <v>0.1221525283372774</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03401466976093557</v>
+        <v>0.02518893815750982</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5399522855.170047</v>
+        <v>5383688861.827616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1059386307688841</v>
+        <v>0.1137741873372587</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0302317617791864</v>
+        <v>0.02924761451093915</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4598835964.311313</v>
+        <v>3495655575.987429</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1211188619536828</v>
+        <v>0.1468031303683203</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04022628351417242</v>
+        <v>0.03121867743234108</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3049260087.834121</v>
+        <v>2596195282.41561</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06735745472703679</v>
+        <v>0.09933826742338668</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04075322568563525</v>
+        <v>0.04149384783023961</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3830190235.292773</v>
+        <v>3897935846.280949</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1237072571704693</v>
+        <v>0.1338179959360007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03653002182126644</v>
+        <v>0.04419637744692184</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1515400363.530218</v>
+        <v>2316995803.59951</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1508756614930195</v>
+        <v>0.1760131917909702</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05463895074853835</v>
+        <v>0.05486245264070189</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2556102597.608902</v>
+        <v>3247404427.59561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09268317938030375</v>
+        <v>0.07672791517008473</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04127782144847332</v>
+        <v>0.04693598874224012</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3853912189.472808</v>
+        <v>3645654330.285455</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1433700598656644</v>
+        <v>0.1652917683645256</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02443756017429579</v>
+        <v>0.02539856903152219</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2160744205.484792</v>
+        <v>2168536863.372972</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09404255590643087</v>
+        <v>0.07624873428704569</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04784662994103148</v>
+        <v>0.03950792359168451</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3500421916.402465</v>
+        <v>3121501348.319789</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08058684194736697</v>
+        <v>0.08244743122804192</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04942161203989313</v>
+        <v>0.0379950985118989</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2880775258.078123</v>
+        <v>2449823506.442168</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1639619615668949</v>
+        <v>0.1472063859874759</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0286012317255844</v>
+        <v>0.02664603186498532</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2082466386.355031</v>
+        <v>1657829646.08413</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1166818353127696</v>
+        <v>0.1580497056311019</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02860075071508044</v>
+        <v>0.03699691506463701</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4385160243.977852</v>
+        <v>3252355203.664404</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1234127024794739</v>
+        <v>0.08785541042474178</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03383489829202009</v>
+        <v>0.03411800201187887</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1792519310.216974</v>
+        <v>1576952539.746572</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1696930729632196</v>
+        <v>0.1293525980066496</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03038993995609248</v>
+        <v>0.02691410177105339</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3108169280.380626</v>
+        <v>3500420222.277107</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08799949442971662</v>
+        <v>0.101601430407486</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05256284580804579</v>
+        <v>0.0521822904868866</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1339679644.783993</v>
+        <v>1759384598.819375</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1447935406679055</v>
+        <v>0.1248931752995402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02934350341823207</v>
+        <v>0.0329203100290958</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4490128023.919716</v>
+        <v>3868705546.099379</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0952657493672991</v>
+        <v>0.09821795297601328</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03674883429578613</v>
+        <v>0.03008260118765003</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3511049710.705065</v>
+        <v>4259011082.12561</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0942478990860304</v>
+        <v>0.1300369765913052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03177393920476523</v>
+        <v>0.03248617420523461</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3593639039.626162</v>
+        <v>3799533661.870037</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1429733120985869</v>
+        <v>0.1548390389031256</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0268068357197737</v>
+        <v>0.02823534365957937</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1621914732.721514</v>
+        <v>2369966493.204662</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1365872874247742</v>
+        <v>0.1058740402698502</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0294988576990092</v>
+        <v>0.02976621262803187</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1741035352.402669</v>
+        <v>2235721598.536946</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1018267256558366</v>
+        <v>0.09304507427701256</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03969414672634192</v>
+        <v>0.04169247152942807</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2699431324.561287</v>
+        <v>2793727797.07431</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1676494266823239</v>
+        <v>0.1765252447981017</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04083573396579115</v>
+        <v>0.03575672311110449</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2658376283.029462</v>
+        <v>2397855867.357345</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1621232415061979</v>
+        <v>0.1081589368644092</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0194314572229054</v>
+        <v>0.02265752758883117</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1032887692.765623</v>
+        <v>1040238855.79913</v>
       </c>
       <c r="F87" t="n">
-        <v>0.137130451609082</v>
+        <v>0.1646544485025594</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0297066050903552</v>
+        <v>0.03466160881614846</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3102777544.271526</v>
+        <v>2699426632.545466</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1423372117856349</v>
+        <v>0.11432573313287</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03564992698960627</v>
+        <v>0.02671703555778421</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2593457003.580126</v>
+        <v>2224184781.388192</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1396453160496134</v>
+        <v>0.1145263682223874</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03723955133389736</v>
+        <v>0.02770372598107253</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1416002836.899724</v>
+        <v>1588943527.53108</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09204007701984869</v>
+        <v>0.1334876212945262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04944442847348102</v>
+        <v>0.04925397959076726</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1609400872.328494</v>
+        <v>1772561044.875199</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1227853392659031</v>
+        <v>0.1442063171916462</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04724919912663842</v>
+        <v>0.04193314166908368</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2021552165.978682</v>
+        <v>2216147657.791865</v>
       </c>
       <c r="F92" t="n">
-        <v>0.108597483283556</v>
+        <v>0.0842575733314979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03465173304636777</v>
+        <v>0.03904192261338889</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3778186230.336162</v>
+        <v>3192746966.583397</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269246711858421</v>
+        <v>0.1370641117709927</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04916823761424653</v>
+        <v>0.04769332871085295</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1587703947.582119</v>
+        <v>2322564654.253764</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1441977585286269</v>
+        <v>0.1061213193919761</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0289313088494586</v>
+        <v>0.0424780268208984</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3186661063.73379</v>
+        <v>3032330835.284575</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08326039968186297</v>
+        <v>0.1246245676840559</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04562722890170225</v>
+        <v>0.03195390776893313</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2347143793.395607</v>
+        <v>1624541748.372862</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1142069423669864</v>
+        <v>0.1244090345604978</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03964497529836999</v>
+        <v>0.03119589139377472</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4678707715.055795</v>
+        <v>3387178851.488606</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1117420916006283</v>
+        <v>0.1348633954968531</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02153449228263354</v>
+        <v>0.02650674523790895</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3569339953.240761</v>
+        <v>3723309723.800682</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1262562150492271</v>
+        <v>0.0918254268541701</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02703677560321146</v>
+        <v>0.03062386021876675</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2898227877.413104</v>
+        <v>2265533879.559969</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200433878112978</v>
+        <v>0.1106432677446878</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02524805381028291</v>
+        <v>0.03192670640907867</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4315494192.898303</v>
+        <v>4682034729.04583</v>
       </c>
       <c r="F100" t="n">
-        <v>0.108886427168475</v>
+        <v>0.1635047697478388</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02488835550196992</v>
+        <v>0.02060283958650185</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3212036793.914718</v>
+        <v>3181842808.062089</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2229473377318048</v>
+        <v>0.2027298992040018</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03814763321727935</v>
+        <v>0.05092202173866663</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_457.xlsx
+++ b/output/fit_clients/fit_round_457.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1802480502.674723</v>
+        <v>2478932846.888608</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06963815144694985</v>
+        <v>0.09579724736128965</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03058874497350725</v>
+        <v>0.03953016946696378</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2585254573.84206</v>
+        <v>1849715104.202968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1401912400004531</v>
+        <v>0.1145026820597285</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04015565488803009</v>
+        <v>0.03290222190034534</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3595355717.856962</v>
+        <v>4482042024.425809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1528724563041202</v>
+        <v>0.1065399672562367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0236823372637692</v>
+        <v>0.02651296209505479</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>457</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3090625728.698365</v>
+        <v>2775900327.656851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052764612620854</v>
+        <v>0.09107179938534569</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03528638009011513</v>
+        <v>0.04185339465042937</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>192</v>
+      </c>
+      <c r="J5" t="n">
+        <v>455</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2423201286.314148</v>
+        <v>2509761361.680592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1451807192702677</v>
+        <v>0.09197040978545049</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05041405977078973</v>
+        <v>0.05093655220357367</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3147384631.493577</v>
+        <v>2658903631.971472</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09534692289005962</v>
+        <v>0.06447528212657533</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03974895463818754</v>
+        <v>0.04897619703479576</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3008297679.638391</v>
+        <v>2399546765.764216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1563829150547036</v>
+        <v>0.1895660934747112</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0296666105719362</v>
+        <v>0.02448955877517215</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>129</v>
+      </c>
+      <c r="J8" t="n">
+        <v>456</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.81157496108307</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2247380119.39243</v>
+        <v>1933825886.469954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1673329545615771</v>
+        <v>0.120457759144978</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03578405601313614</v>
+        <v>0.03676207819723735</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5336909398.499368</v>
+        <v>4459895209.307019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1884278197281495</v>
+        <v>0.1498789140395193</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03578808694701103</v>
+        <v>0.05385184467952637</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>353</v>
+      </c>
+      <c r="J10" t="n">
+        <v>457</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3622237241.521183</v>
+        <v>3037961862.649383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1838740526278708</v>
+        <v>0.1433539230673885</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04844131901617971</v>
+        <v>0.03151561712270783</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>190</v>
+      </c>
+      <c r="J11" t="n">
+        <v>456</v>
+      </c>
+      <c r="K11" t="n">
+        <v>25.09275163010143</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2056256568.440851</v>
+        <v>2193632283.397654</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1924307102703638</v>
+        <v>0.1898669208679694</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05088527340183173</v>
+        <v>0.04617115380348059</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4422679856.9135</v>
+        <v>3823371831.630424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09880230522993291</v>
+        <v>0.0613489257198232</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02000363159318651</v>
+        <v>0.03023791887279631</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>237</v>
+      </c>
+      <c r="J13" t="n">
+        <v>457</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3730178718.493628</v>
+        <v>2366589059.014804</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1687363064502545</v>
+        <v>0.1199591279017422</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04062643129202473</v>
+        <v>0.02741244484816785</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>456</v>
+      </c>
+      <c r="K14" t="n">
+        <v>20.07730325073465</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1305267675.176724</v>
+        <v>1423234434.404129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107864285793903</v>
+        <v>0.1040390163529075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0306270621857372</v>
+        <v>0.04089691816670642</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2317245615.783735</v>
+        <v>2501209495.068573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007696597459575</v>
+        <v>0.08754501033577171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04238757052566744</v>
+        <v>0.03337871803849957</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4980816375.367162</v>
+        <v>4963501206.159287</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567235187111699</v>
+        <v>0.1729816171629269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.043849900484274</v>
+        <v>0.042044515364785</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>223</v>
+      </c>
+      <c r="J17" t="n">
+        <v>456</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32.83089960546538</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3580918570.117779</v>
+        <v>2875822137.657899</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1543266458589909</v>
+        <v>0.1812805617069133</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03457138122510836</v>
+        <v>0.02449613348855401</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>957452212.4431627</v>
+        <v>846278752.2082493</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1533562231869824</v>
+        <v>0.1834289409713646</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981254445575304</v>
+        <v>0.01837096828633185</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2332969384.760551</v>
+        <v>2422567320.812379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1266013406307516</v>
+        <v>0.1053814105247944</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0227798466718461</v>
+        <v>0.03177127287210367</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2275155595.695105</v>
+        <v>2666639632.349348</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07452356127604817</v>
+        <v>0.07123770225591367</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03563684793180723</v>
+        <v>0.04449841477142205</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514664243.670678</v>
+        <v>3280325189.174073</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1152627852109987</v>
+        <v>0.1119152481605071</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04736644349476354</v>
+        <v>0.05528983138637591</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1318711325.689738</v>
+        <v>1008890546.302935</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1745892004868428</v>
+        <v>0.1541037196008748</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04905259793698053</v>
+        <v>0.03428698869909801</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2871833581.25483</v>
+        <v>4065460167.471586</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1494670223627142</v>
+        <v>0.1252914728616049</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03037065934417173</v>
+        <v>0.03409004886409</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>144</v>
+      </c>
+      <c r="J24" t="n">
+        <v>457</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1328390072.778663</v>
+        <v>1016520828.788749</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07738176345545658</v>
+        <v>0.08805121877780854</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03076898539390639</v>
+        <v>0.0197197976960606</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1421626570.392331</v>
+        <v>1173889352.047923</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09171268628467211</v>
+        <v>0.09545477262595729</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02609593719356492</v>
+        <v>0.0357307535211675</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4407892971.092595</v>
+        <v>3569829996.199373</v>
       </c>
       <c r="F27" t="n">
-        <v>0.144574482792958</v>
+        <v>0.1023292526028636</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02588882148720755</v>
+        <v>0.02007828063471625</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>199</v>
+      </c>
+      <c r="J27" t="n">
+        <v>455</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3098478749.627363</v>
+        <v>3383496436.10633</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1484645590166042</v>
+        <v>0.1506295809538729</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03274029687719218</v>
+        <v>0.04239678658517345</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>111</v>
+      </c>
+      <c r="J28" t="n">
+        <v>455</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4983731197.952002</v>
+        <v>4417798789.378954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1127390555113357</v>
+        <v>0.1478092627084738</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03902919135887305</v>
+        <v>0.0307762948921657</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>369</v>
+      </c>
+      <c r="J29" t="n">
+        <v>457</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1742064958.092307</v>
+        <v>1833615635.112589</v>
       </c>
       <c r="F30" t="n">
-        <v>0.104665902666199</v>
+        <v>0.1207693370057265</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0379385492197248</v>
+        <v>0.02790842514675498</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1412834866.05597</v>
+        <v>1029553387.119829</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09876348850544799</v>
+        <v>0.104773594943107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04623841075808519</v>
+        <v>0.0421468468400608</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1538550734.795545</v>
+        <v>1170922916.78001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1113574191134847</v>
+        <v>0.1049315770132828</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03748846523946532</v>
+        <v>0.02539379651324956</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2295256794.569613</v>
+        <v>2659024321.584856</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1317346522792892</v>
+        <v>0.1340757482329948</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04708525671269435</v>
+        <v>0.05906451825591858</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1275995410.380903</v>
+        <v>1408452085.709317</v>
       </c>
       <c r="F34" t="n">
-        <v>0.100768702578461</v>
+        <v>0.07665798277861814</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02511954473690686</v>
+        <v>0.01794366953909217</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149555153.666153</v>
+        <v>900098446.2285248</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08522846791877911</v>
+        <v>0.09720867585406083</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03574768095861151</v>
+        <v>0.02805903586995781</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3077038424.518231</v>
+        <v>2442762081.770533</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1381353240767536</v>
+        <v>0.1698930899123055</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02185642480502543</v>
+        <v>0.02517243626718125</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2225654401.399022</v>
+        <v>1893689181.810783</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06780371670292838</v>
+        <v>0.101706288700489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03093474829346205</v>
+        <v>0.03895713776434279</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1903589675.258501</v>
+        <v>1385673094.34091</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08171686009402672</v>
+        <v>0.08324103936042064</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02953748424478475</v>
+        <v>0.03988544206717676</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1897255067.5603</v>
+        <v>2157075984.49043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1552404531930714</v>
+        <v>0.169592241398075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0318037901608803</v>
+        <v>0.02262515418956917</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1671583891.296594</v>
+        <v>1804523490.716089</v>
       </c>
       <c r="F40" t="n">
-        <v>0.160238735685332</v>
+        <v>0.1322890631986134</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04498961288671283</v>
+        <v>0.03975285299226428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2066536360.019986</v>
+        <v>1828139368.897223</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1212239943899197</v>
+        <v>0.1586442910994421</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02878053541715143</v>
+        <v>0.04710761093337941</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3868032079.67904</v>
+        <v>3986153625.360941</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0940570227620017</v>
+        <v>0.1209526398005427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04423259894056061</v>
+        <v>0.03640390858708602</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>200</v>
+      </c>
+      <c r="J42" t="n">
+        <v>457</v>
+      </c>
+      <c r="K42" t="n">
+        <v>43.57419616982838</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2121758984.474894</v>
+        <v>2206464627.412998</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1527340237990387</v>
+        <v>0.1238530776207382</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02496587993112305</v>
+        <v>0.01917796626402462</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2187597229.219796</v>
+        <v>2230621539.754006</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08171570207074395</v>
+        <v>0.07305194414021574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0249373144972014</v>
+        <v>0.0368275448182282</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1844025478.92456</v>
+        <v>2444832314.956984</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247377970464104</v>
+        <v>0.1354166336341545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05348473052381372</v>
+        <v>0.05380991757174636</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4688539785.332896</v>
+        <v>5010539894.091771</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1492128027212028</v>
+        <v>0.1307898718582422</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0402754905652612</v>
+        <v>0.05063381200395683</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>271</v>
+      </c>
+      <c r="J46" t="n">
+        <v>457</v>
+      </c>
+      <c r="K46" t="n">
+        <v>34.020037966844</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3803783708.440706</v>
+        <v>4537406234.583307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1992024335567588</v>
+        <v>0.1393146712855776</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05034352730943967</v>
+        <v>0.05500143140641656</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>205</v>
+      </c>
+      <c r="J47" t="n">
+        <v>457</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4160464243.644635</v>
+        <v>3837553655.555103</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0912972724478122</v>
+        <v>0.08897399201775436</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03084610878222123</v>
+        <v>0.02614861251967206</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>457</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1961309388.613776</v>
+        <v>1220304997.380394</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1574428794259739</v>
+        <v>0.1501695602802931</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04450780650548386</v>
+        <v>0.02999052680508926</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4006580598.408213</v>
+        <v>3102224789.414886</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1773496818873564</v>
+        <v>0.1624198369989097</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03571252305458072</v>
+        <v>0.05011644626165053</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>163</v>
+      </c>
+      <c r="J50" t="n">
+        <v>456</v>
+      </c>
+      <c r="K50" t="n">
+        <v>26.36876161412863</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1001975734.150316</v>
+        <v>1171226524.991988</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1763106816769605</v>
+        <v>0.1615276250704034</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03992909794390605</v>
+        <v>0.05376052306232786</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4056022241.801903</v>
+        <v>5021634167.604984</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09888586052209987</v>
+        <v>0.1379446232692269</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03924462024010877</v>
+        <v>0.06135024855807217</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>259</v>
+      </c>
+      <c r="J52" t="n">
+        <v>457</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3036530982.219662</v>
+        <v>2992245508.469129</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1703924957490465</v>
+        <v>0.1854131903413539</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0304156677808536</v>
+        <v>0.02211736906838225</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>70</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="n">
+        <v>33.77985528404766</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4078695182.667621</v>
+        <v>4726799854.205075</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1624413355529682</v>
+        <v>0.1633949405383276</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04174314410361015</v>
+        <v>0.04105289856661012</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>242</v>
+      </c>
+      <c r="J54" t="n">
+        <v>457</v>
+      </c>
+      <c r="K54" t="n">
+        <v>33.6153082599249</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3512040189.219111</v>
+        <v>3884218752.797557</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1374166277928855</v>
+        <v>0.1682472307929664</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02714852138123914</v>
+        <v>0.02033117799450282</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>227</v>
+      </c>
+      <c r="J55" t="n">
+        <v>457</v>
+      </c>
+      <c r="K55" t="n">
+        <v>36.23777031623201</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1308196409.809906</v>
+        <v>1665095455.092857</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1636084826540024</v>
+        <v>0.139682566821245</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04110242567814442</v>
+        <v>0.04837815862126119</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3271945873.874589</v>
+        <v>3115101299.503737</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166071801656878</v>
+        <v>0.1638385049812932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02090133958517355</v>
+        <v>0.01984255496432542</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1788487098.810252</v>
+        <v>1360995786.880272</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1300121389622212</v>
+        <v>0.1986580278907217</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02912694132769091</v>
+        <v>0.03480029432026893</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4542532652.101464</v>
+        <v>3942835242.497835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09986606335650518</v>
+        <v>0.09258488706943017</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03679700710399929</v>
+        <v>0.03481965154525224</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>224</v>
+      </c>
+      <c r="J59" t="n">
+        <v>456</v>
+      </c>
+      <c r="K59" t="n">
+        <v>31.56534387432689</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3130693052.036129</v>
+        <v>3117310255.29032</v>
       </c>
       <c r="F60" t="n">
-        <v>0.192864639345863</v>
+        <v>0.139255127628766</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02096911102428902</v>
+        <v>0.02574455526999336</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2853497007.961617</v>
+        <v>3160327446.11071</v>
       </c>
       <c r="F61" t="n">
-        <v>0.136810139914252</v>
+        <v>0.1648667599014359</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02245972659239871</v>
+        <v>0.02295927362252303</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1758567124.806497</v>
+        <v>2069960640.77017</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1570794540799079</v>
+        <v>0.168036611983613</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04620218510254216</v>
+        <v>0.0343037957963572</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5018284340.591197</v>
+        <v>3592752742.254513</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0850466639870066</v>
+        <v>0.1051363952271697</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04391569087614661</v>
+        <v>0.02955478777538371</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>229</v>
+      </c>
+      <c r="J63" t="n">
+        <v>456</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.33935955090508</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4338788472.287085</v>
+        <v>4452197814.142229</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1221525283372774</v>
+        <v>0.1853045325190679</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02518893815750982</v>
+        <v>0.02628198539098813</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>229</v>
+      </c>
+      <c r="J64" t="n">
+        <v>456</v>
+      </c>
+      <c r="K64" t="n">
+        <v>31.47714865734534</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5383688861.827616</v>
+        <v>5365373117.0515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1137741873372587</v>
+        <v>0.1350836107258989</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02924761451093915</v>
+        <v>0.01950982591898429</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>326</v>
+      </c>
+      <c r="J65" t="n">
+        <v>456</v>
+      </c>
+      <c r="K65" t="n">
+        <v>31.79684004675553</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3495655575.987429</v>
+        <v>5301758420.329267</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1468031303683203</v>
+        <v>0.1478546654144419</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03121867743234108</v>
+        <v>0.03432701000297127</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>225</v>
+      </c>
+      <c r="J66" t="n">
+        <v>457</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,22 +2798,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596195282.41561</v>
+        <v>2265649908.239646</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09933826742338668</v>
+        <v>0.06256189248914222</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04149384783023961</v>
+        <v>0.03915659101430569</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="n">
+        <v>26.56036305809812</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3897935846.280949</v>
+        <v>3910294549.628287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1338179959360007</v>
+        <v>0.1006180699444555</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04419637744692184</v>
+        <v>0.04692937737572996</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>248</v>
+      </c>
+      <c r="J68" t="n">
+        <v>457</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2316995803.59951</v>
+        <v>2116136854.745124</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760131917909702</v>
+        <v>0.1435574333157501</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05486245264070189</v>
+        <v>0.05401507731649532</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3247404427.59561</v>
+        <v>2384008908.11563</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07672791517008473</v>
+        <v>0.08302725802887052</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04693598874224012</v>
+        <v>0.0328010943445986</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3645654330.285455</v>
+        <v>4709157002.009214</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1652917683645256</v>
+        <v>0.1547823873409005</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02539856903152219</v>
+        <v>0.03013741761679226</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>312</v>
+      </c>
+      <c r="J71" t="n">
+        <v>456</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.47824335643854</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2168536863.372972</v>
+        <v>1679581674.062735</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07624873428704569</v>
+        <v>0.09993788470998</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03950792359168451</v>
+        <v>0.03434280912454898</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3121501348.319789</v>
+        <v>3065250163.990899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08244743122804192</v>
+        <v>0.09151231926658207</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0379950985118989</v>
+        <v>0.05001874674773</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2449823506.442168</v>
+        <v>3854867834.868752</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1472063859874759</v>
+        <v>0.1196618454783212</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02664603186498532</v>
+        <v>0.02500020099243272</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>133</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1657829646.08413</v>
+        <v>2281470665.773345</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1580497056311019</v>
+        <v>0.1424047106145168</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03699691506463701</v>
+        <v>0.02585150447369958</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3252355203.664404</v>
+        <v>3620377275.243195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08785541042474178</v>
+        <v>0.1183494246580236</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03411800201187887</v>
+        <v>0.03356584090177361</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>218</v>
+      </c>
+      <c r="J76" t="n">
+        <v>457</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1576952539.746572</v>
+        <v>2303961815.249227</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1293525980066496</v>
+        <v>0.1645383182946856</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02691410177105339</v>
+        <v>0.02386205665483923</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3500420222.277107</v>
+        <v>2899891971.457722</v>
       </c>
       <c r="F78" t="n">
-        <v>0.101601430407486</v>
+        <v>0.09862750658768211</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0521822904868866</v>
+        <v>0.05554248889455982</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>228</v>
+      </c>
+      <c r="J78" t="n">
+        <v>456</v>
+      </c>
+      <c r="K78" t="n">
+        <v>19.61083186035579</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1759384598.819375</v>
+        <v>1549404045.310879</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1248931752995402</v>
+        <v>0.1245479433229027</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0329203100290958</v>
+        <v>0.03753233475308067</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3868705546.099379</v>
+        <v>5132801523.151142</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09821795297601328</v>
+        <v>0.06935578695799026</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03008260118765003</v>
+        <v>0.02861840324647265</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>223</v>
+      </c>
+      <c r="J80" t="n">
+        <v>456</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.33957862934056</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4259011082.12561</v>
+        <v>4067734693.3929</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1300369765913052</v>
+        <v>0.1052323179760908</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03248617420523461</v>
+        <v>0.0283070779645397</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>213</v>
+      </c>
+      <c r="J81" t="n">
+        <v>456</v>
+      </c>
+      <c r="K81" t="n">
+        <v>32.63299055321588</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3799533661.870037</v>
+        <v>5184911174.373603</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1548390389031256</v>
+        <v>0.212817813990042</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02823534365957937</v>
+        <v>0.02818858705982362</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>303</v>
+      </c>
+      <c r="J82" t="n">
+        <v>457</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2369966493.204662</v>
+        <v>1528160940.946544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1058740402698502</v>
+        <v>0.1578424416745512</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02976621262803187</v>
+        <v>0.02736706236713203</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2235721598.536946</v>
+        <v>2348555789.880813</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09304507427701256</v>
+        <v>0.08898557880175989</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04169247152942807</v>
+        <v>0.05141297781849645</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2793727797.07431</v>
+        <v>3306793886.168884</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1765252447981017</v>
+        <v>0.1525994179014333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03575672311110449</v>
+        <v>0.03930985480621528</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2397855867.357345</v>
+        <v>2333213660.09991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1081589368644092</v>
+        <v>0.1315647208580785</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02265752758883117</v>
+        <v>0.019653279933046</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1040238855.79913</v>
+        <v>1175044291.725248</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1646544485025594</v>
+        <v>0.1723070782588323</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03466160881614846</v>
+        <v>0.03471625102323832</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2699426632.545466</v>
+        <v>2873124922.914111</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11432573313287</v>
+        <v>0.1097048256036011</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02671703555778421</v>
+        <v>0.03437582410161601</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2224184781.388192</v>
+        <v>3109619402.821517</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1145263682223874</v>
+        <v>0.1594160131567395</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02770372598107253</v>
+        <v>0.03998305310400867</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1588943527.53108</v>
+        <v>1352206438.640457</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1334876212945262</v>
+        <v>0.1071547003384082</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04925397959076726</v>
+        <v>0.05093389205575623</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1772561044.875199</v>
+        <v>1352402438.250957</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1442063171916462</v>
+        <v>0.1228135319832278</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04193314166908368</v>
+        <v>0.05850042907489049</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2216147657.791865</v>
+        <v>1964324674.848062</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0842575733314979</v>
+        <v>0.1019355987656104</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03904192261338889</v>
+        <v>0.03970269025533413</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3192746966.583397</v>
+        <v>3894939982.13428</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1370641117709927</v>
+        <v>0.1123916353231061</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04769332871085295</v>
+        <v>0.03412194094659314</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>219</v>
+      </c>
+      <c r="J93" t="n">
+        <v>457</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2322564654.253764</v>
+        <v>2157163950.557997</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1061213193919761</v>
+        <v>0.1480997160257452</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0424780268208984</v>
+        <v>0.03984241653915142</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3032330835.284575</v>
+        <v>2444158286.50702</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1246245676840559</v>
+        <v>0.1143062450522351</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03195390776893313</v>
+        <v>0.0479565179338375</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1624541748.372862</v>
+        <v>1668682173.425437</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1244090345604978</v>
+        <v>0.09710419363240601</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03119589139377472</v>
+        <v>0.04243574039196955</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3387178851.488606</v>
+        <v>4900111814.908629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1348633954968531</v>
+        <v>0.1364054489515638</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02650674523790895</v>
+        <v>0.02839238131207235</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>238</v>
+      </c>
+      <c r="J97" t="n">
+        <v>457</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3723309723.800682</v>
+        <v>2482230193.382684</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0918254268541701</v>
+        <v>0.1000659288841799</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03062386021876675</v>
+        <v>0.02053353673920788</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>115</v>
+      </c>
+      <c r="J98" t="n">
+        <v>456</v>
+      </c>
+      <c r="K98" t="n">
+        <v>20.97243053108565</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2265533879.559969</v>
+        <v>2327908605.748935</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1106432677446878</v>
+        <v>0.1446929879315099</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03192670640907867</v>
+        <v>0.02210535856969064</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4682034729.04583</v>
+        <v>3072486242.485765</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1635047697478388</v>
+        <v>0.1182821068767498</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02060283958650185</v>
+        <v>0.02318235794920942</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>212</v>
+      </c>
+      <c r="J100" t="n">
+        <v>454</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3181842808.062089</v>
+        <v>2927737984.773654</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2027298992040018</v>
+        <v>0.1910400589490969</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05092202173866663</v>
+        <v>0.04502450548508056</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
